--- a/Nuno-dataset/ph-as-input/test-solidos-01/content/results/metrics_1_7.xlsx
+++ b/Nuno-dataset/ph-as-input/test-solidos-01/content/results/metrics_1_7.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_0</t>
+          <t>model_1_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9607363272723993</v>
+        <v>0.9811311972403775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8577851262147558</v>
+        <v>0.9722766314271021</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9567897875592353</v>
+        <v>0.8607819149208679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9057603735274234</v>
+        <v>0.9312733809837527</v>
       </c>
       <c r="F2" t="n">
-        <v>4.735210620945968</v>
+        <v>2.275583230630684</v>
       </c>
       <c r="G2" t="n">
-        <v>21.37937216480316</v>
+        <v>3.293514223747568</v>
       </c>
       <c r="H2" t="n">
-        <v>3.910437667191649</v>
+        <v>12.19482068099679</v>
       </c>
       <c r="I2" t="n">
-        <v>13.15869853100757</v>
+        <v>7.482360770893265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_1</t>
+          <t>model_1_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9622774711379214</v>
+        <v>0.9813298165793169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8603910761185656</v>
+        <v>0.9724884863666445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9554085973131623</v>
+        <v>0.8624507479474339</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9068244742305609</v>
+        <v>0.9320276139178394</v>
       </c>
       <c r="F3" t="n">
-        <v>4.549348211918295</v>
+        <v>2.251629679219512</v>
       </c>
       <c r="G3" t="n">
-        <v>20.98761586425955</v>
+        <v>3.268346024763396</v>
       </c>
       <c r="H3" t="n">
-        <v>4.03543261766095</v>
+        <v>12.04863910197327</v>
       </c>
       <c r="I3" t="n">
-        <v>13.01011792979631</v>
+        <v>7.400246402415569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_2</t>
+          <t>model_1_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9635068113859198</v>
+        <v>0.9815472214928532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8625652211147752</v>
+        <v>0.9727224996571464</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9539957372464617</v>
+        <v>0.8642853424337547</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9076327847850229</v>
+        <v>0.9328573431207275</v>
       </c>
       <c r="F4" t="n">
-        <v>4.401089411997466</v>
+        <v>2.225410581918938</v>
       </c>
       <c r="G4" t="n">
-        <v>20.66077343366821</v>
+        <v>3.240545431239303</v>
       </c>
       <c r="H4" t="n">
-        <v>4.163293623456074</v>
+        <v>11.88793763297727</v>
       </c>
       <c r="I4" t="n">
-        <v>12.8972533599363</v>
+        <v>7.309912652159543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_3</t>
+          <t>model_1_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9644855728087803</v>
+        <v>0.9817848154590446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8643827027127644</v>
+        <v>0.9729807355264543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9525882440929107</v>
+        <v>0.8662996990820115</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9082394128925712</v>
+        <v>0.9337692619209125</v>
       </c>
       <c r="F5" t="n">
-        <v>4.283050492993241</v>
+        <v>2.19675667885727</v>
       </c>
       <c r="G5" t="n">
-        <v>20.3875487388675</v>
+        <v>3.209867214542399</v>
       </c>
       <c r="H5" t="n">
-        <v>4.290668934362157</v>
+        <v>11.71148988124225</v>
       </c>
       <c r="I5" t="n">
-        <v>12.81254975184224</v>
+        <v>7.210630808320685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_4</t>
+          <t>model_1_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9652630989087954</v>
+        <v>0.9820438491242501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8659048923323142</v>
+        <v>0.9732655324207524</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9512125312364342</v>
+        <v>0.8685081299685756</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9086874595987239</v>
+        <v>0.9347699614602124</v>
       </c>
       <c r="F6" t="n">
-        <v>4.189280613838104</v>
+        <v>2.165517141711232</v>
       </c>
       <c r="G6" t="n">
-        <v>20.15871572361696</v>
+        <v>3.176033569118561</v>
       </c>
       <c r="H6" t="n">
-        <v>4.415168192045272</v>
+        <v>11.51804217915157</v>
       </c>
       <c r="I6" t="n">
-        <v>12.74998889761611</v>
+        <v>7.101683284297446</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_5</t>
+          <t>model_1_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9658791808475538</v>
+        <v>0.9823255699958146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8671826439225819</v>
+        <v>0.9735791442076972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9498868292314252</v>
+        <v>0.8709257606109757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9090114219281097</v>
+        <v>0.9358664194534637</v>
       </c>
       <c r="F7" t="n">
-        <v>4.114980948597398</v>
+        <v>2.131541520723631</v>
       </c>
       <c r="G7" t="n">
-        <v>19.96662943857932</v>
+        <v>3.138776737275712</v>
       </c>
       <c r="H7" t="n">
-        <v>4.535141567852333</v>
+        <v>11.30626960563719</v>
       </c>
       <c r="I7" t="n">
-        <v>12.70475397057584</v>
+        <v>6.982310406756407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_6</t>
+          <t>model_1_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9663657207865833</v>
+        <v>0.9826311098352474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.868256885524179</v>
+        <v>0.973924504405443</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9486234700627706</v>
+        <v>0.8735666033776699</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9092384076882806</v>
+        <v>0.9370659280770955</v>
       </c>
       <c r="F8" t="n">
-        <v>4.056304087092593</v>
+        <v>2.094693325119465</v>
       </c>
       <c r="G8" t="n">
-        <v>19.80513711091928</v>
+        <v>3.097748219381111</v>
       </c>
       <c r="H8" t="n">
-        <v>4.649473041854489</v>
+        <v>11.07494474602402</v>
       </c>
       <c r="I8" t="n">
-        <v>12.67305990194761</v>
+        <v>6.851718266501568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_7</t>
+          <t>model_1_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9667486626932926</v>
+        <v>0.9829612907920826</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8691625259780796</v>
+        <v>0.9743039581453855</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9474298530817979</v>
+        <v>0.8764457559725447</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9093905555085071</v>
+        <v>0.9383751746373016</v>
       </c>
       <c r="F9" t="n">
-        <v>4.010121179129926</v>
+        <v>2.054873403420164</v>
       </c>
       <c r="G9" t="n">
-        <v>19.66899084297912</v>
+        <v>3.052669415682741</v>
       </c>
       <c r="H9" t="n">
-        <v>4.757492987578985</v>
+        <v>10.82274511558257</v>
       </c>
       <c r="I9" t="n">
-        <v>12.65181547034862</v>
+        <v>6.709178807384616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_8</t>
+          <t>model_1_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9670486702744083</v>
+        <v>0.9833167874654742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8699272429700202</v>
+        <v>0.9747204811282001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9463099428527737</v>
+        <v>0.8795767010833151</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9094848548800585</v>
+        <v>0.9398012853718554</v>
       </c>
       <c r="F10" t="n">
-        <v>3.973940175525932</v>
+        <v>2.012000398766892</v>
       </c>
       <c r="G10" t="n">
-        <v>19.55402980735541</v>
+        <v>3.003186815297787</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8588426199015</v>
+        <v>10.54848969707005</v>
       </c>
       <c r="I10" t="n">
-        <v>12.63864842959991</v>
+        <v>6.553916186177356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_9</t>
+          <t>model_1_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9672825858912618</v>
+        <v>0.9836977117555801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8705746299828115</v>
+        <v>0.9751768905462379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.94526551534963</v>
+        <v>0.8829718144012375</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9095353288707977</v>
+        <v>0.9413504381097698</v>
       </c>
       <c r="F11" t="n">
-        <v>3.945729882489559</v>
+        <v>1.966060815967308</v>
       </c>
       <c r="G11" t="n">
-        <v>19.45670716090687</v>
+        <v>2.948965738006723</v>
       </c>
       <c r="H11" t="n">
-        <v>4.953361216738832</v>
+        <v>10.25109444069804</v>
       </c>
       <c r="I11" t="n">
-        <v>12.63160073583609</v>
+        <v>6.38525781420721</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_10</t>
+          <t>model_1_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9674637512091444</v>
+        <v>0.9841036422529196</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8711238028330041</v>
+        <v>0.9756760605033875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9442959601962639</v>
+        <v>0.8866415272025865</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9095526287471772</v>
+        <v>0.9430282031591959</v>
       </c>
       <c r="F12" t="n">
-        <v>3.923881291214455</v>
+        <v>1.917105477130225</v>
       </c>
       <c r="G12" t="n">
-        <v>19.37414919467893</v>
+        <v>2.889664742544463</v>
       </c>
       <c r="H12" t="n">
-        <v>5.041104015905582</v>
+        <v>9.929645617883304</v>
       </c>
       <c r="I12" t="n">
-        <v>12.62918515052</v>
+        <v>6.202597244426614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_11</t>
+          <t>model_1_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9676030610002956</v>
+        <v>0.9845333848089411</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8715910848227034</v>
+        <v>0.9762207932395635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9433994314964805</v>
+        <v>0.8905929237580978</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9095454885872534</v>
+        <v>0.9448389216431242</v>
       </c>
       <c r="F13" t="n">
-        <v>3.907080488924834</v>
+        <v>1.865278396926508</v>
       </c>
       <c r="G13" t="n">
-        <v>19.3039020025408</v>
+        <v>2.824950925029157</v>
       </c>
       <c r="H13" t="n">
-        <v>5.122238067309688</v>
+        <v>9.583522681293717</v>
       </c>
       <c r="I13" t="n">
-        <v>12.63018213252658</v>
+        <v>6.005461852853324</v>
       </c>
     </row>
     <row r="14">
@@ -854,400 +854,400 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9677091794134184</v>
+        <v>0.9849846514956928</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8719893451858312</v>
+        <v>0.9768137069052711</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9425733164688007</v>
+        <v>0.8948283689205625</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9095205603328509</v>
+        <v>0.9467851923299563</v>
       </c>
       <c r="F14" t="n">
-        <v>3.894282576707529</v>
+        <v>1.810855500148348</v>
       </c>
       <c r="G14" t="n">
-        <v>19.24403093353676</v>
+        <v>2.754513251254845</v>
       </c>
       <c r="H14" t="n">
-        <v>5.196999822441089</v>
+        <v>9.212518481436387</v>
       </c>
       <c r="I14" t="n">
-        <v>12.63366286984342</v>
+        <v>5.793568708026148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_13</t>
+          <t>model_1_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9677890390735875</v>
+        <v>0.985453819833088</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8723296619356408</v>
+        <v>0.9774570264991724</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9418143798641974</v>
+        <v>0.8993454370757346</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9094830532637285</v>
+        <v>0.9488670366475529</v>
       </c>
       <c r="F15" t="n">
-        <v>3.884651477914474</v>
+        <v>1.754273658972721</v>
       </c>
       <c r="G15" t="n">
-        <v>19.19287061356149</v>
+        <v>2.678087393143191</v>
       </c>
       <c r="H15" t="n">
-        <v>5.265682064855883</v>
+        <v>8.816845490209328</v>
       </c>
       <c r="I15" t="n">
-        <v>12.6388999896606</v>
+        <v>5.566915477064649</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_14</t>
+          <t>model_1_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9678482546783576</v>
+        <v>0.9859355023992954</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8726213259988023</v>
+        <v>0.9781523294398173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9411186380332481</v>
+        <v>0.9041328901727765</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9094370983995587</v>
+        <v>0.9510813514548569</v>
       </c>
       <c r="F16" t="n">
-        <v>3.877510058348905</v>
+        <v>1.696182598076463</v>
       </c>
       <c r="G16" t="n">
-        <v>19.14902432387701</v>
+        <v>2.595485954620088</v>
       </c>
       <c r="H16" t="n">
-        <v>5.328645306846754</v>
+        <v>8.397488105686156</v>
       </c>
       <c r="I16" t="n">
-        <v>12.64531667684706</v>
+        <v>5.325840003169116</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_15</t>
+          <t>model_1_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9678913024249027</v>
+        <v>0.9864220142641329</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8728719374923004</v>
+        <v>0.9789006127597101</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9404823232647397</v>
+        <v>0.9091692465086308</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9093858698519153</v>
+        <v>0.9534205015585657</v>
       </c>
       <c r="F17" t="n">
-        <v>3.872318487298915</v>
+        <v>1.637509122327581</v>
       </c>
       <c r="G17" t="n">
-        <v>19.11134952766432</v>
+        <v>2.506590489013901</v>
       </c>
       <c r="H17" t="n">
-        <v>5.386230518731018</v>
+        <v>7.956328019577834</v>
       </c>
       <c r="I17" t="n">
-        <v>12.65246972954743</v>
+        <v>5.071173540250526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_16</t>
+          <t>model_1_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9679217431295908</v>
+        <v>0.9869028579635222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8730877882374959</v>
+        <v>0.9797013445863284</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9399016432844698</v>
+        <v>0.9144204055068657</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9093317764289492</v>
+        <v>0.9558713214810872</v>
       </c>
       <c r="F18" t="n">
-        <v>3.86864732925041</v>
+        <v>1.579519229019347</v>
       </c>
       <c r="G18" t="n">
-        <v>19.07890036611913</v>
+        <v>2.411464182358904</v>
       </c>
       <c r="H18" t="n">
-        <v>5.438780893727309</v>
+        <v>7.496352274943242</v>
       </c>
       <c r="I18" t="n">
-        <v>12.66002280538148</v>
+        <v>4.804349431814988</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_17</t>
+          <t>model_1_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9679423204381352</v>
+        <v>0.987363886676932</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8732738755275617</v>
+        <v>0.9805521721951526</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9393721579541187</v>
+        <v>0.9198360323975835</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9092763615535925</v>
+        <v>0.9584132722547085</v>
       </c>
       <c r="F19" t="n">
-        <v>3.86616569971346</v>
+        <v>1.523919028919753</v>
       </c>
       <c r="G19" t="n">
-        <v>19.05092558877297</v>
+        <v>2.310386536464219</v>
       </c>
       <c r="H19" t="n">
-        <v>5.486698255459071</v>
+        <v>7.02196995047764</v>
       </c>
       <c r="I19" t="n">
-        <v>12.6677603958861</v>
+        <v>4.527603783297207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_24</t>
+          <t>model_1_7_0</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9679536156842322</v>
+        <v>0.987553816147049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8740476489762962</v>
+        <v>0.9868362268560323</v>
       </c>
       <c r="D20" t="n">
-        <v>0.936802857363221</v>
+        <v>0.9523925687787472</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9089337658766374</v>
+        <v>0.974370185148775</v>
       </c>
       <c r="F20" t="n">
-        <v>3.86480348967122</v>
+        <v>1.501013478275832</v>
       </c>
       <c r="G20" t="n">
-        <v>18.93460308261431</v>
+        <v>1.56384582103876</v>
       </c>
       <c r="H20" t="n">
-        <v>5.719214812112368</v>
+        <v>4.170177218685851</v>
       </c>
       <c r="I20" t="n">
-        <v>12.71559710110042</v>
+        <v>2.790352907695453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_18</t>
+          <t>model_1_7_6</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9679554229360092</v>
+        <v>0.9877864504290333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8734351290420459</v>
+        <v>0.9814484266773384</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9388903455783514</v>
+        <v>0.9253445672437212</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9092213311053243</v>
+        <v>0.9610166725174437</v>
       </c>
       <c r="F21" t="n">
-        <v>3.864585534568843</v>
+        <v>1.47295771460617</v>
       </c>
       <c r="G21" t="n">
-        <v>19.02668410961344</v>
+        <v>2.203912214001745</v>
       </c>
       <c r="H21" t="n">
-        <v>5.530301310299464</v>
+        <v>6.539449345302753</v>
       </c>
       <c r="I21" t="n">
-        <v>12.67544430875685</v>
+        <v>4.244168045068657</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_23</t>
+          <t>model_1_7_5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9679589474513823</v>
+        <v>0.9881461820351606</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8739765421611002</v>
+        <v>0.9823815268915742</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9370709191202212</v>
+        <v>0.9308493476109969</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9089750141188847</v>
+        <v>0.9636400191400931</v>
       </c>
       <c r="F22" t="n">
-        <v>3.86416047696548</v>
+        <v>1.429573975804111</v>
       </c>
       <c r="G22" t="n">
-        <v>18.94529267523613</v>
+        <v>2.093060647761275</v>
       </c>
       <c r="H22" t="n">
-        <v>5.694955760085161</v>
+        <v>6.057257614041385</v>
       </c>
       <c r="I22" t="n">
-        <v>12.70983760050624</v>
+        <v>3.958560719424897</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_19</t>
+          <t>model_1_7_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9679627986250463</v>
+        <v>0.9881860326579773</v>
       </c>
       <c r="C23" t="n">
-        <v>0.873575066282391</v>
+        <v>0.9860982485051583</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9384523688361304</v>
+        <v>0.9496774066354537</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9091675232099747</v>
+        <v>0.9729158351899441</v>
       </c>
       <c r="F23" t="n">
-        <v>3.863696024274998</v>
+        <v>1.424767978827666</v>
       </c>
       <c r="G23" t="n">
-        <v>19.00564713744996</v>
+        <v>1.651517064489224</v>
       </c>
       <c r="H23" t="n">
-        <v>5.569937328115452</v>
+        <v>4.408012090775021</v>
       </c>
       <c r="I23" t="n">
-        <v>12.68295751631077</v>
+        <v>2.948689971774432</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_22</t>
+          <t>model_1_7_4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9679630975746411</v>
+        <v>0.9884116862444768</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8738953346608279</v>
+        <v>0.983338242428653</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9373669648788594</v>
+        <v>0.936222823145347</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9090190080423503</v>
+        <v>0.9662271770107898</v>
       </c>
       <c r="F24" t="n">
-        <v>3.863659970864864</v>
+        <v>1.39755408911184</v>
       </c>
       <c r="G24" t="n">
-        <v>18.95750071877394</v>
+        <v>1.979403599875341</v>
       </c>
       <c r="H24" t="n">
-        <v>5.668164211967268</v>
+        <v>5.58656754142707</v>
       </c>
       <c r="I24" t="n">
-        <v>12.70369471987578</v>
+        <v>3.676893312575857</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_21</t>
+          <t>model_1_7_2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9679656450601239</v>
+        <v>0.9884890070310878</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8738027749388153</v>
+        <v>0.9852324454321029</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9376940026203003</v>
+        <v>0.9458722818188694</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9090659996374946</v>
+        <v>0.9709749602194466</v>
       </c>
       <c r="F25" t="n">
-        <v>3.863352743357165</v>
+        <v>1.388229179225799</v>
       </c>
       <c r="G25" t="n">
-        <v>18.97141535858416</v>
+        <v>1.754373783670885</v>
       </c>
       <c r="H25" t="n">
-        <v>5.638567951488866</v>
+        <v>4.741322341240553</v>
       </c>
       <c r="I25" t="n">
-        <v>12.69713327372898</v>
+        <v>3.159995677603278</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_20</t>
+          <t>model_1_7_3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9679658340578001</v>
+        <v>0.9885428988183222</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8736966970808925</v>
+        <v>0.9842982911912282</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9380548575084573</v>
+        <v>0.9413002379540748</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9091155931636918</v>
+        <v>0.9687042249899793</v>
       </c>
       <c r="F26" t="n">
-        <v>3.863329950181145</v>
+        <v>1.381729813640083</v>
       </c>
       <c r="G26" t="n">
-        <v>18.98736219974511</v>
+        <v>1.865350567441038</v>
       </c>
       <c r="H26" t="n">
-        <v>5.605911306975178</v>
+        <v>5.141810934695422</v>
       </c>
       <c r="I26" t="n">
-        <v>12.69020851941122</v>
+        <v>3.407213719829898</v>
       </c>
     </row>
   </sheetData>
